--- a/data/trans_dic/P25C$otrosprofesionales_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otrosprofesionales_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.00528953810296934</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.03719555640867919</v>
+        <v>0.03719555640867917</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01636241337129807</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009880516688130113</v>
+        <v>0.01067599399429895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006030552330445556</v>
+        <v>0.006163133207507268</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02531515057490144</v>
+        <v>0.03104654859377094</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08895686793619344</v>
+        <v>0.09081880580421836</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03471468980511714</v>
+        <v>0.03843627083454182</v>
       </c>
     </row>
     <row r="7">
@@ -637,10 +637,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.009595468028356547</v>
+        <v>0.009680278248151054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003683975483853256</v>
+        <v>0.003731102644334339</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.08236734687943732</v>
+        <v>0.0812288275152849</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03410353858990396</v>
+        <v>0.0340431313233406</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.006371058234738952</v>
+        <v>0.006371058234738951</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.00523926964014893</v>
+        <v>0.005239269640148931</v>
       </c>
     </row>
     <row r="11">
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03359041819168097</v>
+        <v>0.03624148946990823</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02943604828454326</v>
+        <v>0.02633861100319554</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.01689423359496763</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02119237231755587</v>
+        <v>0.02119237231755588</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.01812996194983382</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004178271260939862</v>
+        <v>0.005082833516808029</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006551143039684413</v>
+        <v>0.006613661163072944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007790619796476569</v>
+        <v>0.00725933836063374</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04005807993723655</v>
+        <v>0.0398253390347761</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05864306972963741</v>
+        <v>0.0573439467738401</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03671120770253741</v>
+        <v>0.03764896160459408</v>
       </c>
     </row>
     <row r="16">
@@ -809,10 +809,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04296800590253809</v>
+        <v>0.03680368214751507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0220249163276275</v>
+        <v>0.01925473511395893</v>
       </c>
     </row>
     <row r="19">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.007576613565624285</v>
+        <v>0.007576613565624283</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.01980923383494361</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003048953560174164</v>
+        <v>0.00269822454148318</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009720033593317901</v>
+        <v>0.0108437941316399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.00674648524731032</v>
+        <v>0.007109552952845732</v>
       </c>
     </row>
     <row r="24">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01568333999723745</v>
+        <v>0.01574728787044521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03411943765483465</v>
+        <v>0.0382341260155843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01865086158702365</v>
+        <v>0.01927715869581678</v>
       </c>
     </row>
     <row r="25">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1206</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="7">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3307</v>
+        <v>4055</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6176</v>
+        <v>6305</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6944</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="8">
@@ -1127,10 +1127,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11">
@@ -1142,10 +1142,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>5176</v>
+        <v>5104</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5633</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="12">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3527</v>
+        <v>3805</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>3758</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="16">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>881</v>
+        <v>1072</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2306</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="19">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8449</v>
+        <v>8400</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4991</v>
+        <v>4881</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10868</v>
+        <v>11145</v>
       </c>
     </row>
     <row r="20">
@@ -1350,10 +1350,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>3429</v>
+        <v>2937</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3834</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="24">
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1981</v>
+        <v>1753</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3480</v>
+        <v>3882</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6799</v>
+        <v>7165</v>
       </c>
     </row>
     <row r="31">
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10191</v>
+        <v>10233</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12216</v>
+        <v>13689</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18797</v>
+        <v>19428</v>
       </c>
     </row>
     <row r="32">
